--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69BF203E-75E6-4A63-A46C-02A56EF90961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD7CEA-CC99-4DA2-97D0-F3F75C9B2DE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
     <author>SJpark</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{413593FD-8E4B-4848-884C-F5F00FBB6B75}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CF3B595D-7B27-4E08-8CEE-8ED38A3FBD90}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{92F893A0-C2D5-41AD-A918-28D5E853A190}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C8433A01-F762-425F-BDF0-1BE293AD0B1B}">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EE42184C-F33E-45D1-AC3D-F2802EBCA8A6}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BFF41C3E-0CD4-4FCB-8E81-DCF8FC1678F1}">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AD5EBBDF-99CF-49CB-B465-AEEB0B07C123}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F57ACC02-AA18-4A2B-82CF-A081B5EC7E42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A7F4C046-3CDB-4774-A344-DE93A0E2FC38}">
       <text>
         <r>
           <rPr>
@@ -323,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{AF51ED78-2F2C-47E7-811E-D5715A7B2728}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
       <text>
         <r>
           <rPr>
@@ -353,49 +425,128 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이콘</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>리소스명</t>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분류
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">enemy - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alley - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아군
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">all - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{8D031CC9-F794-4AA7-A601-90EEF61FE9F9}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
       <text>
         <r>
           <rPr>
@@ -425,49 +576,68 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>타겟</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>관련한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정보</t>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
       <text>
         <r>
           <rPr>
@@ -497,128 +667,290 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">분류
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">enemy - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">alley - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아군
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">all - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모두</t>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">타입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">damage - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입힘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">heal - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">회복
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">buff - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도트뎀은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> damage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> duration</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조절해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
       <text>
         <r>
           <rPr>
@@ -648,68 +980,280 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
+          <t>영향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스탯
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>stat * importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">계산
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">atk / hp / mp - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마나
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">value - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절댓값이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
       <text>
         <r>
           <rPr>
@@ -729,300 +1273,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">타입
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">damage - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데미지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">입힘
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">heal - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">회복
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">buff - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>도트뎀은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아니라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> damage</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> duration</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조절해서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-</t>
+stat * importance</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
       <text>
         <r>
           <rPr>
@@ -1052,280 +1307,1676 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>영향</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스탯
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>stat * importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">계산
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">atk / hp / mp - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공격력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">마나
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">value - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스탯에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>영향을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>절댓값이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>됨</t>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> importance </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">변화값
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Importance+(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*level)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시간
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>즉시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발휘
+다른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자연수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴동안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">발휘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ex) 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이라면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mp </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모값
+공란일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> mp </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성공</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확률
+공란일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이펙트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>리소스명칭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분류
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">enemy - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alley - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아군
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">all - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">타입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">damage - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입힘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">heal - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">회복
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">buff - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도트뎀은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> damage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> duration</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조절해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스탯
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>stat * importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">계산
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">atk / hp / mp - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마나
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">value - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절댓값이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
       <text>
         <r>
           <rPr>
@@ -1349,7 +3000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -1489,7 +3140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -1906,7 +3557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
       <text>
         <r>
           <rPr>
@@ -1998,7 +3649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -2080,7 +3731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{A66FFE9F-6269-423B-9A84-8F95DB63429F}">
       <text>
         <r>
           <rPr>
@@ -2187,454 +3838,6 @@
             <charset val="129"/>
           </rPr>
           <t>리소스명칭</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{EF6C6D8A-8313-40DF-BB3E-E2149485C454}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>앞과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>동일하게</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능하나</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, prev</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>붙는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이전</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>그대로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>불러와서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>발휘함</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{019AB608-0E11-4CBC-980A-B7D9450C0A68}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-prev</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이전</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>그대로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>불러오므로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없음</t>
         </r>
       </text>
     </comment>
@@ -2643,7 +3846,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2658,54 +3861,6 @@
   </si>
   <si>
     <t>use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2766,6 +3921,67 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_A_type</t>
+  </si>
+  <si>
+    <t>target_A_count</t>
+  </si>
+  <si>
+    <t>target_B_type</t>
+  </si>
+  <si>
+    <t>target_B_count</t>
+  </si>
+  <si>
+    <t>effect_A_type</t>
+  </si>
+  <si>
+    <t>effect_A_stat</t>
+  </si>
+  <si>
+    <t>effect_A_importance</t>
+  </si>
+  <si>
+    <t>effect_A_level</t>
+  </si>
+  <si>
+    <t>effect_A_duration</t>
+  </si>
+  <si>
+    <t>effect_A_cost</t>
+  </si>
+  <si>
+    <t>effect_A_prob</t>
+  </si>
+  <si>
+    <t>effect_B_type</t>
+  </si>
+  <si>
+    <t>effect_B_stat</t>
+  </si>
+  <si>
+    <t>effect_B_importance</t>
+  </si>
+  <si>
+    <t>effect_B_level</t>
+  </si>
+  <si>
+    <t>effect_B_duration</t>
+  </si>
+  <si>
+    <t>effect_B_cost</t>
+  </si>
+  <si>
+    <t>effect_B_prob</t>
+  </si>
+  <si>
+    <t>asset_A</t>
+  </si>
+  <si>
+    <t>asset_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3156,311 +4372,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="2"/>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="2"/>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>90</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="S3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="2"/>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="J4">
-        <v>0.02</v>
-      </c>
-      <c r="K4">
+        <v>120</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>90</v>
-      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5">
-        <v>0.8</v>
-      </c>
-      <c r="J5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5">
-        <v>0.5</v>
-      </c>
-      <c r="T5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>120</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF69C0F-1B21-4194-833D-4A94B36118F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A6B82B-BD2C-4615-A838-B848A0D58E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
@@ -69,7 +69,45 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">ID + 01~99
+          <t xml:space="preserve">ID + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Lv
 ex) </t>
         </r>
         <r>
@@ -89,9 +127,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">(101) + 01
-     =&gt; 10101 
-     == </t>
+          <t xml:space="preserve">(101) + </t>
         </r>
         <r>
           <rPr>
@@ -101,6 +137,27 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>기본공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(01) + 01
+     =&gt; 1010101 
+     == Lv1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>워리어</t>
         </r>
         <r>
@@ -120,7 +177,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기본공격
+          <t>기본공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 아이템</t>
         </r>
         <r>
@@ -149,7 +225,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 100 + 01~99</t>
+          <t xml:space="preserve"> 100 + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID + 01</t>
         </r>
         <r>
           <rPr>
@@ -227,7 +322,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> ID</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -360,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
       <text>
         <r>
           <rPr>
@@ -511,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
       <text>
         <r>
           <rPr>
@@ -602,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
       <text>
         <r>
           <rPr>
@@ -915,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
       <text>
         <r>
           <rPr>
@@ -1799,7 +1894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
       <text>
         <r>
           <rPr>
@@ -1891,7 +1986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
       <text>
         <r>
           <rPr>
@@ -1973,7 +2068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
       <text>
         <r>
           <rPr>
@@ -2083,7 +2178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
       <text>
         <r>
           <rPr>
@@ -2234,7 +2329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
       <text>
         <r>
           <rPr>
@@ -2325,7 +2420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
       <text>
         <r>
           <rPr>
@@ -2638,7 +2733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
       <text>
         <r>
           <rPr>
@@ -2941,7 +3036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
       <text>
         <r>
           <rPr>
@@ -2965,7 +3060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -3105,7 +3200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -3522,7 +3617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
       <text>
         <r>
           <rPr>
@@ -3614,7 +3709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -3696,7 +3791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{A66FFE9F-6269-423B-9A84-8F95DB63429F}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{A66FFE9F-6269-423B-9A84-8F95DB63429F}">
       <text>
         <r>
           <rPr>
@@ -3811,11 +3906,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3888,16 +3979,7 @@
     <t>effect_A_type</t>
   </si>
   <si>
-    <t>effect_A_stat</t>
-  </si>
-  <si>
     <t>effect_A_importance</t>
-  </si>
-  <si>
-    <t>effect_A_level</t>
-  </si>
-  <si>
-    <t>effect_A_duration</t>
   </si>
   <si>
     <t>effect_A_cost</t>
@@ -3927,26 +4009,27 @@
     <t>effect_B_prob</t>
   </si>
   <si>
-    <t>asset_A</t>
-  </si>
-  <si>
     <t>asset_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격합니다</t>
+    <t>effect_A_stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 출혈상태로 만듭니다</t>
+    <t>effect_A_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력을 회복합니다</t>
+    <t>effect_A_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4341,241 +4424,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
       </c>
       <c r="O1" t="s">
         <v>17</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10101</v>
+        <v>1010101</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.02</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1010201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="I2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.02</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-      <c r="M2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>7</v>
+      <c r="H3">
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J3">
-        <v>1.4999999999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
         <v>90</v>
       </c>
-      <c r="O3" t="s">
-        <v>9</v>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" t="s">
-        <v>7</v>
+      <c r="R3">
+        <v>0.5</v>
       </c>
       <c r="S3">
-        <v>0.5</v>
+        <v>1.2E-2</v>
       </c>
       <c r="T3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="U3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10001</v>
+        <v>1000101</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>120</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>0</v>
       </c>
     </row>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A6B82B-BD2C-4615-A838-B848A0D58E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015DCE8-4D5E-4640-811F-595E3C1A9C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SJpark</author>
+    <author>USER</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CF3B595D-7B27-4E08-8CEE-8ED38A3FBD90}">
@@ -455,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A2CA6A3E-8A3D-431F-89BE-10C095BBC9E7}">
       <text>
         <r>
           <rPr>
@@ -465,7 +466,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SJpark:</t>
+          <t>USER:</t>
         </r>
         <r>
           <rPr>
@@ -481,132 +482,73 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">분류
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">enemy - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">alley - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아군
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">all - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모두</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두가지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가지고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">있는가
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
       <text>
         <r>
           <rPr>
@@ -674,30 +616,90 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>타겟의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
+          <t>타겟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분류
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">enemy - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alley - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아군
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">all - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
       <text>
         <r>
           <rPr>
@@ -727,290 +729,68 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">타입
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">damage - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데미지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">입힘
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">heal - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">회복
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">buff - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>도트뎀은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아니라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> damage</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> duration</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조절해서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-</t>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
       <text>
         <r>
           <rPr>
@@ -1040,104 +820,124 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>영향</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스탯
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>stat * importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">계산
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">atk / hp / mp - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공격력</t>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">타입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">damage - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입힘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">heal - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">회복
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">buff - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버프</t>
         </r>
         <r>
           <rPr>
@@ -1156,164 +956,457 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">마나
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">value - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스탯에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>영향을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>절댓값이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>됨</t>
+          <t>디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도트뎀은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> damage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> duration</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조절해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스탯
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>stat * importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">계산
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">atk / hp / mp - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마나
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">value - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절댓값이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
       <text>
         <r>
           <rPr>
@@ -1894,7 +1987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
       <text>
         <r>
           <rPr>
@@ -1986,7 +2079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
       <text>
         <r>
           <rPr>
@@ -2068,7 +2161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
       <text>
         <r>
           <rPr>
@@ -2178,7 +2271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
       <text>
         <r>
           <rPr>
@@ -2329,7 +2422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
       <text>
         <r>
           <rPr>
@@ -2420,7 +2513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
       <text>
         <r>
           <rPr>
@@ -2733,7 +2826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
       <text>
         <r>
           <rPr>
@@ -3036,7 +3129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
       <text>
         <r>
           <rPr>
@@ -3060,7 +3153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -3200,7 +3293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -3617,7 +3710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
       <text>
         <r>
           <rPr>
@@ -3709,7 +3802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -3791,7 +3884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{A66FFE9F-6269-423B-9A84-8F95DB63429F}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{A66FFE9F-6269-423B-9A84-8F95DB63429F}">
       <text>
         <r>
           <rPr>
@@ -3906,7 +3999,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4030,6 +4123,10 @@
   </si>
   <si>
     <t>asset_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDoubleEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4424,37 +4521,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -4465,68 +4563,71 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1010101</v>
       </c>
@@ -4536,35 +4637,38 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.02</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1010201</v>
       </c>
@@ -4574,53 +4678,56 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.8</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>15</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>90</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>6</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.2E-2</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000101</v>
       </c>
@@ -4630,23 +4737,35 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>120</v>
       </c>
       <c r="J4">
         <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015DCE8-4D5E-4640-811F-595E3C1A9C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92086E45-788B-47AB-8FB9-807C6834793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
@@ -41,16 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">SJpark:
 </t>
         </r>
         <r>
@@ -61,16 +52,17 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>캐릭터</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ID + </t>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID 1101~1199
+</t>
         </r>
         <r>
           <rPr>
@@ -80,16 +72,17 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ID + </t>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID 1001~1099
+</t>
         </r>
         <r>
           <rPr>
@@ -99,17 +92,16 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Lv
-ex) </t>
+          <t>일반공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -119,16 +111,16 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>워리어</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">(101) + </t>
+          <t>직업군별로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -138,18 +130,17 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기본공격</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">(01) + 01
-     =&gt; 1010101 
-     == Lv1. </t>
+          <t>만들어주세오
+스킬이름도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -159,7 +150,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>워리어</t>
+          <t>일반공격</t>
         </r>
         <r>
           <rPr>
@@ -178,7 +169,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기본공격</t>
+          <t>아니라</t>
         </r>
         <r>
           <rPr>
@@ -197,17 +188,17 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">
-아이템</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t>다르게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>!
+Ex)</t>
         </r>
         <r>
           <rPr>
@@ -217,153 +208,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 100 + </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ID + 01</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-캐릭터</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레벨별</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스텟도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>방식으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>진행
-캐릭터</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ID + Lv
-</t>
+          <t>베기</t>
         </r>
       </text>
     </comment>
@@ -4010,10 +3855,6 @@
   </si>
   <si>
     <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4127,6 +3968,10 @@
   </si>
   <si>
     <t>isDoubleEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4524,7 +4369,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4554,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4563,94 +4408,94 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
-      </c>
-      <c r="X1" t="s">
-        <v>29</v>
       </c>
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1010101</v>
+        <v>1101</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
       <c r="I2">
         <v>1.1000000000000001</v>
@@ -4670,28 +4515,28 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1010201</v>
+        <v>1102</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
       </c>
       <c r="I3">
         <v>0.8</v>
@@ -4709,13 +4554,13 @@
         <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
         <v>5</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
       </c>
       <c r="S3">
         <v>0.5</v>
@@ -4729,28 +4574,28 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1000101</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
       </c>
       <c r="I4">
         <v>120</v>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92086E45-788B-47AB-8FB9-807C6834793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E0523-C305-4005-A97B-B8127574A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-26355" yWindow="1500" windowWidth="25095" windowHeight="12975" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{DB797863-BF09-4639-B235-426FF319225E}">
       <text>
         <r>
           <rPr>
@@ -403,7 +403,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SJpark:</t>
+          <t>USER:</t>
         </r>
         <r>
           <rPr>
@@ -413,138 +413,136 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">분류
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">enemy - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">alley - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아군
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">all - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모두</t>
+effectA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> effectB</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가질</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는가</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
       <text>
         <r>
           <rPr>
@@ -612,30 +610,90 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>타겟의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
+          <t>타겟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분류
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">enemy - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alley - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아군
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">all - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
       <text>
         <r>
           <rPr>
@@ -665,290 +723,68 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">타입
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">damage - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데미지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">입힘
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">heal - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">회복
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">buff - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>도트뎀은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아니라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> damage</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> duration</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조절해서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-</t>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
       <text>
         <r>
           <rPr>
@@ -978,104 +814,124 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>영향</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스탯
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>stat * importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">계산
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">atk / hp / mp - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공격력</t>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">타입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">damage - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입힘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">heal - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">회복
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">buff - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버프</t>
         </r>
         <r>
           <rPr>
@@ -1094,164 +950,457 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">마나
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">value - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스탯에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>영향을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>절댓값이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>됨</t>
+          <t>디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도트뎀은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> damage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> duration</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조절해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스탯
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>stat * importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">계산
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">atk / hp / mp - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마나
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">value - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절댓값이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
       <text>
         <r>
           <rPr>
@@ -1275,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
       <text>
         <r>
           <rPr>
@@ -1832,7 +1981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
       <text>
         <r>
           <rPr>
@@ -1924,7 +2073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
       <text>
         <r>
           <rPr>
@@ -2006,7 +2155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
       <text>
         <r>
           <rPr>
@@ -2116,7 +2265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
       <text>
         <r>
           <rPr>
@@ -2267,7 +2416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
       <text>
         <r>
           <rPr>
@@ -2358,7 +2507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
       <text>
         <r>
           <rPr>
@@ -2974,7 +3123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
       <text>
         <r>
           <rPr>
@@ -2998,7 +3147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -3138,7 +3287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -3555,7 +3704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
       <text>
         <r>
           <rPr>
@@ -3647,7 +3796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -3729,7 +3878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{A66FFE9F-6269-423B-9A84-8F95DB63429F}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{A66FFE9F-6269-423B-9A84-8F95DB63429F}">
       <text>
         <r>
           <rPr>
@@ -3844,7 +3993,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3972,6 +4121,10 @@
   </si>
   <si>
     <t>베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDoubleTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4366,38 +4519,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -4411,68 +4565,71 @@
         <v>34</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1101</v>
       </c>
@@ -4485,35 +4642,38 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.02</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1102</v>
       </c>
@@ -4526,53 +4686,56 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.8</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>15</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>90</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>4</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.5</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1.2E-2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -4585,23 +4748,23 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>120</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4610,6 +4773,9 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>100</v>
       </c>
     </row>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\basefile\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E0523-C305-4005-A97B-B8127574A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239C202A-F867-459A-8388-758A051A87CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26355" yWindow="1500" windowWidth="25095" windowHeight="12975" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2265,7 +2265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8B186DA7-A388-4948-A1A8-0C5358EC8CEF}">
       <text>
         <r>
           <rPr>
@@ -2295,128 +2295,69 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">분류
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">enemy - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">alley - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아군
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">all - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모두</t>
+          <t>지속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과일떄</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아이콘
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
       <text>
         <r>
           <rPr>
@@ -2484,30 +2425,90 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>타겟의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
+          <t>타겟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분류
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">enemy - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alley - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아군
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">all - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
       <text>
         <r>
           <rPr>
@@ -2537,290 +2538,68 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">타입
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">damage - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데미지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">입힘
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">heal - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">회복
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">buff - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>도트뎀은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아니라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> damage</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> duration</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조절해서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-</t>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
       <text>
         <r>
           <rPr>
@@ -2850,104 +2629,124 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>영향</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스탯
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>stat * importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">계산
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">atk / hp / mp - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공격력</t>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">타입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">damage - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입힘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">heal - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">회복
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">buff - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버프</t>
         </r>
         <r>
           <rPr>
@@ -2966,164 +2765,457 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">마나
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">value - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스탯에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>영향을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>절댓값이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>됨</t>
+          <t>디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도트뎀은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> damage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> duration</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조절해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스탯
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>stat * importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">계산
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">atk / hp / mp - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마나
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">value - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절댓값이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
       <text>
         <r>
           <rPr>
@@ -3147,7 +3239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -3287,7 +3379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -3704,7 +3796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
       <text>
         <r>
           <rPr>
@@ -3796,7 +3888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -3878,7 +3970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{A66FFE9F-6269-423B-9A84-8F95DB63429F}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
       <text>
         <r>
           <rPr>
@@ -3985,6 +4077,98 @@
             <charset val="129"/>
           </rPr>
           <t>리소스명칭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과일떄</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아이콘
+</t>
         </r>
       </text>
     </comment>
@@ -3993,7 +4177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4092,10 +4276,6 @@
     <t>effect_B_prob</t>
   </si>
   <si>
-    <t>asset_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4112,10 +4292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asset_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isDoubleEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4125,6 +4301,22 @@
   </si>
   <si>
     <t>isDoubleTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4198,12 +4390,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4519,10 +4708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4538,22 +4727,24 @@
     <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4562,10 +4753,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -4577,16 +4768,16 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
       </c>
       <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
       </c>
       <c r="M1" t="s">
         <v>19</v>
@@ -4595,41 +4786,46 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="1"/>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1101</v>
       </c>
@@ -4637,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4673,7 +4869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1102</v>
       </c>
@@ -4716,26 +4912,26 @@
       <c r="N3">
         <v>90</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>5</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1.2E-2</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F87680A-64AE-4767-AA7D-BBA0327527A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4510154D-73D0-4F91-B6DA-F0377C7F75E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="2760" windowWidth="21600" windowHeight="11295" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{A2CA6A3E-8A3D-431F-89BE-10C095BBC9E7}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A2CA6A3E-8A3D-431F-89BE-10C095BBC9E7}">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{DB797863-BF09-4639-B235-426FF319225E}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{DB797863-BF09-4639-B235-426FF319225E}">
       <text>
         <r>
           <rPr>
@@ -498,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3EABCC42-0840-4454-935D-0C4AE1599E5D}">
       <text>
         <r>
           <rPr>
@@ -649,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{ED7857E6-D2B7-4994-B91F-6D1AA654ABB1}">
       <text>
         <r>
           <rPr>
@@ -740,7 +740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{65CDE7BD-8D5F-4600-9F5F-BCF433E90053}">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3C2339ED-9848-4CA8-B0E1-4512C2BF52E9}">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B87702FD-D5F4-400A-AC09-98826527CE21}">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{98E72D96-9915-47D8-AE1E-3AC962C4B284}">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{2045E454-6A29-4CF8-A3D3-F330C5A47AA5}">
       <text>
         <r>
           <rPr>
@@ -1937,7 +1937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{80FD96C6-C36F-4E97-84DC-3DD17EC6BB4C}">
       <text>
         <r>
           <rPr>
@@ -2029,7 +2029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{57EE5788-EF0E-40E8-B260-A13A01FA7770}">
       <text>
         <r>
           <rPr>
@@ -2111,7 +2111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
       <text>
         <r>
           <rPr>
@@ -2221,7 +2221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{8B186DA7-A388-4948-A1A8-0C5358EC8CEF}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8B186DA7-A388-4948-A1A8-0C5358EC8CEF}">
       <text>
         <r>
           <rPr>
@@ -2313,7 +2313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
       <text>
         <r>
           <rPr>
@@ -2464,7 +2464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
       <text>
         <r>
           <rPr>
@@ -2555,7 +2555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
       <text>
         <r>
           <rPr>
@@ -2868,7 +2868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
       <text>
         <r>
           <rPr>
@@ -3171,7 +3171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
       <text>
         <r>
           <rPr>
@@ -3195,7 +3195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -3335,7 +3335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -3752,7 +3752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
       <text>
         <r>
           <rPr>
@@ -3844,7 +3844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -3926,7 +3926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
       <text>
         <r>
           <rPr>
@@ -4036,7 +4036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
       <text>
         <r>
           <rPr>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4261,6 +4261,10 @@
   </si>
   <si>
     <t>일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4652,41 +4656,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -4694,208 +4698,208 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10101</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.02</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10102</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" t="b">
+      <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.8</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>15</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>90</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>3</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1.2E-2</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11201</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>120</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4904,6 +4908,9 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>100</v>
       </c>
     </row>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4510154D-73D0-4F91-B6DA-F0377C7F75E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DE4751-9831-4E38-92DC-3DD6D1AE04B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-27735" yWindow="2565" windowWidth="25095" windowHeight="12975" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4133,7 +4133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4264,7 +4264,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon</t>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4659,7 +4667,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4780,6 +4788,9 @@
       <c r="B2" t="s">
         <v>35</v>
       </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
@@ -4821,6 +4832,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
@@ -4846,7 +4860,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>15</v>
@@ -4879,6 +4893,9 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\basefile\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DE4751-9831-4E38-92DC-3DD6D1AE04B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C68BF-2D05-4B25-8B93-7B92DACD0705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27735" yWindow="2565" windowWidth="25095" windowHeight="12975" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,84 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>수</t>
+          <t xml:space="preserve">수
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟</t>
         </r>
       </text>
     </comment>
@@ -1219,6 +1296,140 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">마나
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">defense - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>증감</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곱한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -4133,7 +4344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4148,10 +4359,6 @@
   </si>
   <si>
     <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4260,10 +4467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4275,12 +4478,76 @@
     <t>item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>일반 공격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈 공격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>사기 저하</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>파열</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 공격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>증강</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>천벌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 강화 주문서</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 주문서</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4323,6 +4590,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4346,9 +4620,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4664,14 +4944,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
@@ -4699,97 +4981,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>33</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>10101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4822,18 +5104,18 @@
         <v>5</v>
       </c>
       <c r="N2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>10102</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -4866,10 +5148,10 @@
         <v>15</v>
       </c>
       <c r="N3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3" t="s">
         <v>2</v>
@@ -4888,14 +5170,14 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>11201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="A4" s="2">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -4904,31 +5186,557 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>0.05</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>10104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>95</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>0.1</v>
+      </c>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>10105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0.7</v>
+      </c>
+      <c r="K6">
+        <v>0.02</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>70</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>0.7</v>
+      </c>
+      <c r="V6">
+        <v>0.02</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>10106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7">
+        <v>1.2</v>
+      </c>
+      <c r="K7">
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>10107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1.2</v>
+      </c>
+      <c r="K8">
+        <v>0.05</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>10108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>0.8</v>
+      </c>
+      <c r="K9">
+        <v>-0.05</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>10109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>0.01</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10110</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10111</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11201</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4">
+      <c r="J13">
         <v>120</v>
       </c>
-      <c r="K4">
+      <c r="K13">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L13">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N13">
         <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11202</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>11203</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1.3</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C68BF-2D05-4B25-8B93-7B92DACD0705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF95AD-26F0-4E35-A76C-FAB6FDD7D680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="1545" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4947,7 +4947,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF95AD-26F0-4E35-A76C-FAB6FDD7D680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA06964-3BBD-4486-A8BE-A94A25F60E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4946,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA06964-3BBD-4486-A8BE-A94A25F60E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61875C6-7168-4130-9164-1B80621D2A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
@@ -2524,7 +2524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
       <text>
         <r>
           <rPr>
@@ -2675,7 +2675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
       <text>
         <r>
           <rPr>
@@ -2766,7 +2766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
       <text>
         <r>
           <rPr>
@@ -3079,7 +3079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
       <text>
         <r>
           <rPr>
@@ -3382,7 +3382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
       <text>
         <r>
           <rPr>
@@ -3406,7 +3406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -3546,7 +3546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -3963,7 +3963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
       <text>
         <r>
           <rPr>
@@ -4055,7 +4055,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -4137,7 +4137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
       <text>
         <r>
           <rPr>
@@ -4247,7 +4247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
       <text>
         <r>
           <rPr>
@@ -4344,7 +4344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4541,6 +4541,13 @@
   <si>
     <t>폭발 주문서</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX_Hit_10105</t>
   </si>
 </sst>
 </file>
@@ -4944,10 +4951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4967,20 +4974,22 @@
     <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.375" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" customWidth="1"/>
+    <col min="29" max="29" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -5030,40 +5039,46 @@
         <v>31</v>
       </c>
       <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
       </c>
+      <c r="AC1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10101</v>
       </c>
@@ -5106,8 +5121,12 @@
       <c r="N2">
         <v>100</v>
       </c>
+      <c r="Q2" t="str">
+        <f>"SFX_Hit_"&amp;A2</f>
+        <v>SFX_Hit_10101</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10102</v>
       </c>
@@ -5150,26 +5169,30 @@
       <c r="N3">
         <v>80</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q15" si="0">"SFX_Hit_"&amp;A3</f>
+        <v>SFX_Hit_10102</v>
+      </c>
+      <c r="R3" t="s">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>3</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.5</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1.2E-2</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10103</v>
       </c>
@@ -5212,8 +5235,12 @@
       <c r="N4">
         <v>80</v>
       </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10103</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10104</v>
       </c>
@@ -5256,29 +5283,33 @@
       <c r="N5">
         <v>95</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10104</v>
+      </c>
+      <c r="R5" t="s">
         <v>4</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>48</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.1</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.01</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10105</v>
       </c>
@@ -5321,29 +5352,36 @@
       <c r="N6">
         <v>70</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10105</v>
+      </c>
+      <c r="R6" t="s">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>2</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>3</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.7</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.02</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0</v>
       </c>
+      <c r="AC6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10106</v>
       </c>
@@ -5386,8 +5424,12 @@
       <c r="N7">
         <v>90</v>
       </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10106</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10107</v>
       </c>
@@ -5430,8 +5472,12 @@
       <c r="N8">
         <v>100</v>
       </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10107</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10108</v>
       </c>
@@ -5474,8 +5520,12 @@
       <c r="N9">
         <v>90</v>
       </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10108</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10109</v>
       </c>
@@ -5518,8 +5568,12 @@
       <c r="N10">
         <v>90</v>
       </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10109</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10110</v>
       </c>
@@ -5562,8 +5616,12 @@
       <c r="N11">
         <v>100</v>
       </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10110</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10111</v>
       </c>
@@ -5606,8 +5664,12 @@
       <c r="N12">
         <v>80</v>
       </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_10111</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11201</v>
       </c>
@@ -5650,8 +5712,12 @@
       <c r="N13">
         <v>100</v>
       </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_11201</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11202</v>
       </c>
@@ -5694,8 +5760,12 @@
       <c r="N14">
         <v>100</v>
       </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_11202</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>11203</v>
       </c>
@@ -5737,6 +5807,10 @@
       </c>
       <c r="N15">
         <v>60</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>SFX_Hit_11203</v>
       </c>
     </row>
   </sheetData>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61875C6-7168-4130-9164-1B80621D2A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC8F65-2BA3-4E2B-92B5-4AA1FC4AC05C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="780" yWindow="2295" windowWidth="16230" windowHeight="11295" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4344,7 +4344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4375,10 +4375,6 @@
   </si>
   <si>
     <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4425,10 +4421,6 @@
   </si>
   <si>
     <t>effect_B_prob</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>effect_A_stat</t>
@@ -4548,6 +4540,10 @@
   </si>
   <si>
     <t>SFX_Hit_10105</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4951,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4991,91 +4987,91 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>33</v>
-      </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -5083,10 +5079,10 @@
         <v>10101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -5131,10 +5127,10 @@
         <v>10102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -5197,10 +5193,10 @@
         <v>10103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -5215,16 +5211,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K4">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -5245,10 +5241,10 @@
         <v>10104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -5294,16 +5290,16 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
         <v>3</v>
       </c>
       <c r="V5">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="W5">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="X5">
         <v>3</v>
@@ -5314,10 +5310,10 @@
         <v>10105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -5378,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
@@ -5386,10 +5382,10 @@
         <v>10106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -5404,16 +5400,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>1.2</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -5434,10 +5430,10 @@
         <v>10107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -5452,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K8">
         <v>0.05</v>
@@ -5482,10 +5478,10 @@
         <v>10108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -5500,16 +5496,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="K9">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -5530,10 +5526,10 @@
         <v>10109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -5551,10 +5547,10 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
         <v>0.01</v>
@@ -5578,10 +5574,10 @@
         <v>10110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -5596,16 +5592,16 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>-5.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -5626,10 +5622,10 @@
         <v>10111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -5677,7 +5673,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -5695,10 +5691,10 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J13">
-        <v>120</v>
+        <v>0.1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -5722,10 +5718,10 @@
         <v>11202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -5740,19 +5736,19 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>3</v>
       </c>
       <c r="J14">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -5770,10 +5766,10 @@
         <v>11203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5812,6 +5808,22 @@
         <f t="shared" si="0"/>
         <v>SFX_Hit_11203</v>
       </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC8F65-2BA3-4E2B-92B5-4AA1FC4AC05C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB9347-078C-4720-A56C-B08C9776D741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2295" windowWidth="16230" windowHeight="11295" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4950,7 +4950,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB9347-078C-4720-A56C-B08C9776D741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF830E2E-60F2-4B98-8C7A-585D7D6F521C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2432,7 +2432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8B186DA7-A388-4948-A1A8-0C5358EC8CEF}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
       <text>
         <r>
           <rPr>
@@ -2462,69 +2462,128 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지속</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과일떄</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표시되는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아이콘
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분류
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">enemy - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alley - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아군
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">all - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
       <text>
         <r>
           <rPr>
@@ -2592,90 +2651,30 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>타겟</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">분류
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">enemy - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">alley - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아군
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">all - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모두</t>
+          <t>타겟의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
       <text>
         <r>
           <rPr>
@@ -2705,68 +2704,290 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">타입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">damage - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입힘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">heal - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">회복
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">buff - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도트뎀은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> damage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> duration</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조절해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
       <text>
         <r>
           <rPr>
@@ -2796,26 +3017,45 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">타입
+          <t>영향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스탯
 </t>
         </r>
         <r>
@@ -2825,36 +3065,36 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">damage - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데미지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">입힘
+          <t>stat * importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">계산
 </t>
         </r>
         <r>
@@ -2864,7 +3104,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">heal - </t>
+          <t xml:space="preserve">atk / hp / mp - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
         </r>
         <r>
           <rPr>
@@ -2883,17 +3142,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">회복
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마나
 </t>
         </r>
         <r>
@@ -2903,183 +3162,159 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">buff - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>도트뎀은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아니라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> damage</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> duration</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조절해서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-</t>
+          <t xml:space="preserve">value - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절댓값이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+stat * importance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -3109,45 +3344,64 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>영향</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스탯
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> importance </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">변화값
 </t>
         </r>
         <r>
@@ -3157,232 +3411,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>stat * importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">계산
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">atk / hp / mp - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공격력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">마나
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">value - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스탯에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>영향을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>절댓값이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>됨</t>
+          <t xml:space="preserve">
+Importance+(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*level)</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -3402,11 +3474,496 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-stat * importance</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시간
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>즉시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발휘
+다른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자연수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴동안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">발휘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ex) 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이라면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mp </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모값
+공란일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> mp </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -3436,117 +3993,59 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레벨에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>따른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> importance </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">변화값
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Importance+(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레벨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>*level)</t>
+          <t>성공</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확률
+공란일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 100%</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
       <text>
         <r>
           <rPr>
@@ -3576,6 +4075,63 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>불러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이펙트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>효과</t>
         </r>
         <r>
@@ -3595,659 +4151,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지속</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">시간
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0 - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>즉시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>발휘
-다른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자연수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이후</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>추가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>턴동안</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">발휘
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ex) 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이라면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>현재</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>턴</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> + </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>다음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>턴까지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>발생</t>
+          <t>리소스명칭</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-mp </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>소모값
-공란일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> mp </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>소모</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없음</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>성공</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확률
-공란일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>불러</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>올</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이펙트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>리소스명칭</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
       <text>
         <r>
           <rPr>
@@ -4344,7 +4252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4447,18 +4355,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FX_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4539,11 +4439,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SFX_Hit_10105</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10101.SFX_Hit_10101</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10102.SFX_Hit_10102</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10103.SFX_Hit_10103</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10104.SFX_Hit_10104</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10105.SFX_Hit_10105</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10106.SFX_Hit_10106</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10107.SFX_Hit_10107</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10108.SFX_Hit_10108</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10109.SFX_Hit_10109</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10110.SFX_Hit_10110</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10111.SFX_Hit_10111</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11201.SFX_Hit_11201</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11202.SFX_Hit_11202</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11203.SFX_Hit_11203</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10102.Buff_10102</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10103.Buff_10103</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10104.Buff_10104</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10106.Buff_10106</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10107.Buff_10107</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10108.Buff_10108</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10110.Buff_10110</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_11202.Buff_11202</t>
   </si>
 </sst>
 </file>
@@ -4947,10 +4914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4969,31 +4936,29 @@
     <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.375" customWidth="1"/>
-    <col min="29" max="29" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5" customWidth="1"/>
+    <col min="26" max="26" width="10.375" customWidth="1"/>
+    <col min="27" max="27" width="81.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -5032,57 +4997,51 @@
         <v>28</v>
       </c>
       <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
       <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -5117,20 +5076,19 @@
       <c r="N2">
         <v>100</v>
       </c>
-      <c r="Q2" t="str">
-        <f>"SFX_Hit_"&amp;A2</f>
-        <v>SFX_Hit_10101</v>
+      <c r="AA2" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -5165,38 +5123,40 @@
       <c r="N3">
         <v>80</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q15" si="0">"SFX_Hit_"&amp;A3</f>
-        <v>SFX_Hit_10102</v>
+      <c r="P3" t="s">
+        <v>4</v>
       </c>
       <c r="R3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="U3" t="s">
+      <c r="S3" t="s">
         <v>3</v>
       </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>1.2E-2</v>
+      </c>
       <c r="V3">
-        <v>0.5</v>
-      </c>
-      <c r="W3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="X3">
         <v>2</v>
       </c>
+      <c r="Z3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -5211,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
@@ -5231,20 +5191,22 @@
       <c r="N4">
         <v>80</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10103</v>
+      <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -5279,41 +5241,43 @@
       <c r="N5">
         <v>95</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10104</v>
+      <c r="P5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
         <v>3</v>
       </c>
+      <c r="T5">
+        <v>0.9</v>
+      </c>
+      <c r="U5">
+        <v>-0.01</v>
+      </c>
       <c r="V5">
-        <v>0.9</v>
-      </c>
-      <c r="W5">
-        <v>-0.01</v>
-      </c>
-      <c r="X5">
         <v>3</v>
       </c>
+      <c r="Z5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -5348,44 +5312,40 @@
       <c r="N6">
         <v>70</v>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10105</v>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
         <v>2</v>
       </c>
-      <c r="U6" t="s">
+      <c r="S6" t="s">
         <v>3</v>
       </c>
+      <c r="T6">
+        <v>0.7</v>
+      </c>
+      <c r="U6">
+        <v>0.02</v>
+      </c>
       <c r="V6">
-        <v>0.7</v>
-      </c>
-      <c r="W6">
-        <v>0.02</v>
-      </c>
-      <c r="X6">
         <v>0</v>
       </c>
-      <c r="AC6" t="s">
-        <v>52</v>
+      <c r="AA6" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -5400,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>1.2</v>
@@ -5420,20 +5380,22 @@
       <c r="N7">
         <v>90</v>
       </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10106</v>
+      <c r="Z7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -5448,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>3</v>
@@ -5468,20 +5430,22 @@
       <c r="N8">
         <v>100</v>
       </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10107</v>
+      <c r="Z8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -5496,10 +5460,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>1.2</v>
@@ -5516,20 +5480,22 @@
       <c r="N9">
         <v>90</v>
       </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10108</v>
+      <c r="Z9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -5547,7 +5513,7 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>0.2</v>
@@ -5564,20 +5530,19 @@
       <c r="N10">
         <v>90</v>
       </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10109</v>
+      <c r="AA10" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -5592,10 +5557,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -5612,20 +5577,22 @@
       <c r="N11">
         <v>100</v>
       </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10110</v>
+      <c r="Z11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -5660,12 +5627,11 @@
       <c r="N12">
         <v>80</v>
       </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_10111</v>
+      <c r="AA12" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11201</v>
       </c>
@@ -5673,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -5691,7 +5657,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>0.1</v>
@@ -5708,20 +5674,19 @@
       <c r="N13">
         <v>100</v>
       </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_11201</v>
+      <c r="AA13" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -5736,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
         <v>3</v>
@@ -5756,20 +5721,22 @@
       <c r="N14">
         <v>100</v>
       </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_11202</v>
+      <c r="Z14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>11203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5804,9 +5771,8 @@
       <c r="N15">
         <v>60</v>
       </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="0"/>
-        <v>SFX_Hit_11203</v>
+      <c r="AA15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF830E2E-60F2-4B98-8C7A-585D7D6F521C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C907D9-DE2C-4728-88DE-6DBF76D94D19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
@@ -2322,7 +2322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{5522B4C5-4A3A-435E-9D94-2FF9B4AED9C3}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
       <text>
         <r>
           <rPr>
@@ -2352,87 +2352,128 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>불러</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>올</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이펙트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>리소스명칭</t>
+          <t>지정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분류
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">enemy - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alley - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아군
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">all - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모두</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{ED58EAB2-ECEB-4F43-B9EE-C8F2E4F848EF}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
       <text>
         <r>
           <rPr>
@@ -2500,90 +2541,30 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>타겟</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">분류
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">enemy - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">alley - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아군
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">all - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모두</t>
+          <t>타겟의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{B4696C83-F2CB-4907-876F-26BCBDCC7C39}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
       <text>
         <r>
           <rPr>
@@ -2613,68 +2594,290 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타겟의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">타입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">damage - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입힘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">heal - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">회복
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">buff - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도트뎀은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디버프가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> damage</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> duration</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조절해서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{71706BBC-8464-4797-990E-01F19410C0A2}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
       <text>
         <r>
           <rPr>
@@ -2704,26 +2907,45 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">타입
+          <t>영향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스탯
 </t>
         </r>
         <r>
@@ -2733,36 +2955,36 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">damage - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데미지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">입힘
+          <t>stat * importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">계산
 </t>
         </r>
         <r>
@@ -2772,7 +2994,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">heal - </t>
+          <t xml:space="preserve">atk / hp / mp - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
         </r>
         <r>
           <rPr>
@@ -2791,17 +3032,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">회복
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마나
 </t>
         </r>
         <r>
@@ -2811,183 +3052,159 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">buff - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>도트뎀은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>디버프가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아니라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> damage</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> duration</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>조절해서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-</t>
+          <t xml:space="preserve">value - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스탯에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, importance</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절댓값이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>됨</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{8B053FD0-CF48-45DB-AF11-32C8ED70BB20}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+stat * importance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
       <text>
         <r>
           <rPr>
@@ -3017,45 +3234,64 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>영향</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스탯
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> importance </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">변화값
 </t>
         </r>
         <r>
@@ -3065,232 +3301,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>stat * importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">계산
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">atk / hp / mp - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>공격력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">마나
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">value - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스탯에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>영향을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>받지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, importance</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>절댓값이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>됨</t>
+          <t xml:space="preserve">
+Importance+(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*level)</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{618697B4-D07F-4070-9B72-730CDEF5D8C1}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
       <text>
         <r>
           <rPr>
@@ -3310,11 +3364,496 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-stat * importance</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시간
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>즉시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발휘
+다른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자연수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴동안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">발휘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ex) 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이라면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>턴까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{7388C843-2D47-44AC-8E78-10FE87A870FC}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SJpark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mp </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모값
+공란일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> mp </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
       <text>
         <r>
           <rPr>
@@ -3344,117 +3883,59 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레벨에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>따른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> importance </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">변화값
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Importance+(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레벨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>*level)</t>
+          <t>성공</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확률
+공란일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 100%</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{E156389A-3FD5-4A83-98AB-FC173B53BF52}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
       <text>
         <r>
           <rPr>
@@ -3484,6 +3965,63 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>불러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이펙트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>효과</t>
         </r>
         <r>
@@ -3503,659 +4041,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지속</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">시간
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0 - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>즉시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>발휘
-다른</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자연수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이후</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>추가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>턴동안</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">발휘
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ex) 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이라면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>현재</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>턴</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> + </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>다음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>턴까지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>발생</t>
+          <t>리소스명칭</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{140A0360-6686-4E93-AE0D-417DC21A6B20}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-mp </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>소모값
-공란일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> mp </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>소모</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없음</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2078E0E9-70F0-45CE-B01D-4037B179AD55}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>성공</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확률
-공란일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{B3CAF608-3F3F-469B-BA20-80D7A284822B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>불러</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>올</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이펙트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>효과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>리소스명칭</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{8FFF4389-5C3F-42CF-B285-498443AC0A36}">
       <text>
         <r>
           <rPr>
@@ -4252,7 +4142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4351,14 +4241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FX_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4447,70 +4329,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10101.SFX_Hit_10101</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10102.SFX_Hit_10102</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10103.SFX_Hit_10103</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10104.SFX_Hit_10104</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10105.SFX_Hit_10105</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10106.SFX_Hit_10106</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10107.SFX_Hit_10107</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10108.SFX_Hit_10108</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10109.SFX_Hit_10109</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10110.SFX_Hit_10110</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10111.SFX_Hit_10111</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11201.SFX_Hit_11201</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11202.SFX_Hit_11202</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11203.SFX_Hit_11203</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10102.Buff_10102</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10103.Buff_10103</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10104.Buff_10104</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10106.Buff_10106</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10107.Buff_10107</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10108.Buff_10108</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10110.Buff_10110</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_11202.Buff_11202</t>
+    <t>FX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10101.SFX_Hit_10101</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10102.Buff_10102</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10102.SFX_Hit_10102</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10103.Buff_10103</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10103.SFX_Hit_10103</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10104.Buff_10104</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10104.SFX_Hit_10104</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10105.SFX_Hit_10105</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10106.Buff_10106</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10106.SFX_Hit_10106</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10107.Buff_10107</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10107.SFX_Hit_10107</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10108.Buff_10108</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10108.SFX_Hit_10108</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10109.SFX_Hit_10109</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10110.Buff_10110</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10110.SFX_Hit_10110</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10111.SFX_Hit_10111</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_11201.SFX_Hit_11201</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_11202.Buff_11202</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_11202.SFX_Hit_11202</t>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_11203.SFX_Hit_11203</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10102.FX_10102</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10103.FX_10103</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10104.FX_10104</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10105.FX_10105</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10106.FX_10106</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10107.FX_10107</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10108.FX_10108</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10109.FX_10109</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10110.FX_10110</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10111.FX_10111</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX11201.FX_11201</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX11202.FX_11202</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX11203.FX_11203</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10101.FX_10101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4914,10 +4843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4935,30 +4864,29 @@
     <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5" customWidth="1"/>
-    <col min="26" max="26" width="10.375" customWidth="1"/>
-    <col min="27" max="27" width="81.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.75" customWidth="1"/>
+    <col min="24" max="24" width="68.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="70.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="81.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -4994,54 +4922,51 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="Y1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Z1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -5076,19 +5001,22 @@
       <c r="N2">
         <v>100</v>
       </c>
-      <c r="AA2" t="s">
-        <v>52</v>
+      <c r="X2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -5123,40 +5051,43 @@
       <c r="N3">
         <v>80</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>4</v>
       </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
       <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="U3">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>0.5</v>
-      </c>
-      <c r="U3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
+      <c r="X3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -5171,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
@@ -5191,22 +5122,25 @@
       <c r="N4">
         <v>80</v>
       </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>54</v>
+      </c>
       <c r="Z4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -5241,43 +5175,46 @@
       <c r="N5">
         <v>95</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5">
+      <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
       <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
         <v>3</v>
       </c>
+      <c r="S5">
+        <v>0.9</v>
+      </c>
       <c r="T5">
-        <v>0.9</v>
+        <v>-0.01</v>
       </c>
       <c r="U5">
-        <v>-0.01</v>
-      </c>
-      <c r="V5">
         <v>3</v>
       </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
       <c r="Z5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -5312,40 +5249,43 @@
       <c r="N6">
         <v>70</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="P6">
         <v>1</v>
       </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
       <c r="R6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" t="s">
         <v>3</v>
       </c>
+      <c r="S6">
+        <v>0.7</v>
+      </c>
       <c r="T6">
-        <v>0.7</v>
+        <v>0.02</v>
       </c>
       <c r="U6">
-        <v>0.02</v>
-      </c>
-      <c r="V6">
         <v>0</v>
       </c>
-      <c r="AA6" t="s">
-        <v>56</v>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -5360,10 +5300,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1.2</v>
@@ -5380,22 +5320,25 @@
       <c r="N7">
         <v>90</v>
       </c>
+      <c r="X7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>59</v>
+      </c>
       <c r="Z7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -5410,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
         <v>3</v>
@@ -5430,22 +5373,25 @@
       <c r="N8">
         <v>100</v>
       </c>
+      <c r="X8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>61</v>
+      </c>
       <c r="Z8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -5460,10 +5406,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>1.2</v>
@@ -5480,22 +5426,25 @@
       <c r="N9">
         <v>90</v>
       </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>63</v>
+      </c>
       <c r="Z9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -5513,7 +5462,7 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>0.2</v>
@@ -5530,19 +5479,22 @@
       <c r="N10">
         <v>90</v>
       </c>
-      <c r="AA10" t="s">
-        <v>60</v>
+      <c r="X10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -5557,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -5577,22 +5529,25 @@
       <c r="N11">
         <v>100</v>
       </c>
+      <c r="X11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>66</v>
+      </c>
       <c r="Z11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -5627,11 +5582,14 @@
       <c r="N12">
         <v>80</v>
       </c>
-      <c r="AA12" t="s">
-        <v>62</v>
+      <c r="X12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11201</v>
       </c>
@@ -5639,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -5657,7 +5615,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>0.1</v>
@@ -5674,19 +5632,22 @@
       <c r="N13">
         <v>100</v>
       </c>
-      <c r="AA13" t="s">
-        <v>63</v>
+      <c r="X13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -5701,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
         <v>3</v>
@@ -5721,22 +5682,25 @@
       <c r="N14">
         <v>100</v>
       </c>
+      <c r="X14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>70</v>
+      </c>
       <c r="Z14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>11203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5771,8 +5735,11 @@
       <c r="N15">
         <v>60</v>
       </c>
-      <c r="AA15" t="s">
-        <v>65</v>
+      <c r="X15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C907D9-DE2C-4728-88DE-6DBF76D94D19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857878B3-3E19-4537-B315-DD782D4E05BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4333,112 +4333,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10101.SFX_Hit_10101</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10102.Buff_10102</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10102.SFX_Hit_10102</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10103.Buff_10103</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10103.SFX_Hit_10103</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10104.Buff_10104</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10104.SFX_Hit_10104</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10105.SFX_Hit_10105</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10106.Buff_10106</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10106.SFX_Hit_10106</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10107.Buff_10107</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10107.SFX_Hit_10107</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10108.Buff_10108</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10108.SFX_Hit_10108</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10109.SFX_Hit_10109</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_10110.Buff_10110</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10110.SFX_Hit_10110</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_10111.SFX_Hit_10111</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_11201.SFX_Hit_11201</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/Buff_11202.Buff_11202</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_11202.SFX_Hit_11202</t>
-  </si>
-  <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/SFX_Hit_11203.SFX_Hit_11203</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10102.FX_10102</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10103.FX_10103</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10104.FX_10104</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10105.FX_10105</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10106.FX_10106</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10107.FX_10107</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10108.FX_10108</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10109.FX_10109</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10110.FX_10110</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10111.FX_10111</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX11201.FX_11201</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX11202.FX_11202</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX11203.FX_11203</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/FX10101.FX_10101</t>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10101.SFX_Hit_10101'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10102.SFX_Hit_10102'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10103.SFX_Hit_10103'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10104.SFX_Hit_10104'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10105.SFX_Hit_10105'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10106.SFX_Hit_10106'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10107.SFX_Hit_10107'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10108.SFX_Hit_10108'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10109.SFX_Hit_10109'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10110.SFX_Hit_10110'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10111.SFX_Hit_10111'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_11201.SFX_Hit_11201'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_11202.SFX_Hit_11202'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_11203.SFX_Hit_11203'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10102.Buff_10102'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10103.Buff_10103'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10104.Buff_10104'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10106.Buff_10106'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10107.Buff_10107'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10108.Buff_10108'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10110.Buff_10110'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_11202.Buff_11202'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10101.FX_10101'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10102.FX_10102'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10103.FX_10103'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10104.FX_10104'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10105.FX_10105'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10106.FX_10106'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10107.FX_10107'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10108.FX_10108'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10109.FX_10109'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10110.FX_10110'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10111.FX_10111'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_11201.FX_11201'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_11202.FX_11202'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_11203.FX_11203'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4845,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5002,7 +5037,7 @@
         <v>100</v>
       </c>
       <c r="X2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s">
         <v>51</v>
@@ -5070,13 +5105,13 @@
         <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" t="s">
         <v>52</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -5123,13 +5158,13 @@
         <v>80</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -5197,13 +5232,13 @@
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Z5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -5271,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -5321,13 +5356,13 @@
         <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="Z7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -5374,13 +5409,13 @@
         <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Z8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -5427,13 +5462,13 @@
         <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -5480,10 +5515,10 @@
         <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -5530,13 +5565,13 @@
         <v>100</v>
       </c>
       <c r="X11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -5583,10 +5618,10 @@
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -5633,10 +5668,10 @@
         <v>100</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -5683,13 +5718,13 @@
         <v>100</v>
       </c>
       <c r="X14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -5736,10 +5771,10 @@
         <v>60</v>
       </c>
       <c r="X15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857878B3-3E19-4537-B315-DD782D4E05BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A003AAB-B5FE-420E-847C-E9152712E805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-25185" yWindow="1125" windowWidth="23070" windowHeight="14565" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4333,147 +4333,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10101.SFX_Hit_10101'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10102.SFX_Hit_10102'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10102.SFX_Hit_10102'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10101.SFX_Hit_10101'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10103.SFX_Hit_10103'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10103.SFX_Hit_10103'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10104.SFX_Hit_10104'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10104.SFX_Hit_10104'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10105.SFX_Hit_10105'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10105.SFX_Hit_10105'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10106.SFX_Hit_10106'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10106.SFX_Hit_10106'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10107.SFX_Hit_10107'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10107.SFX_Hit_10107'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10108.SFX_Hit_10108'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10108.SFX_Hit_10108'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10109.SFX_Hit_10109'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10109.SFX_Hit_10109'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10110.SFX_Hit_10110'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10110.SFX_Hit_10110'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_10111.SFX_Hit_10111'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10111.SFX_Hit_10111'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_11201.SFX_Hit_11201'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10101.FX_10101'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_11202.SFX_Hit_11202'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10102.FX_10102'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave/Game/Resource/Sound/Skill/'SFX_Hit_11203.SFX_Hit_11203'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10103.FX_10103'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10102.Buff_10102'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10104.FX_10104'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10103.Buff_10103'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10105.FX_10105'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10104.Buff_10104'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10106.FX_10106'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10106.Buff_10106'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10107.FX_10107'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10107.Buff_10107'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10108.FX_10108'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10108.Buff_10108'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10109.FX_10109'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_10110.Buff_10110'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10110.FX_10110'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Buff/'Buff_11202.Buff_11202'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_10111.FX_10111'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10101.FX_10101'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_11201.FX_11201'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10102.FX_10102'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_11202.FX_11202'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10103.FX_10103'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Effect/FX_11203.FX_11203'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10104.FX_10104'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10102.Buff_10102'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10105.FX_10105'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10103.Buff_10103'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10106.FX_10106'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10104.Buff_10104'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10107.FX_10107'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10106.Buff_10106'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10108.FX_10108'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10107.Buff_10107'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10109.FX_10109'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10108.Buff_10108'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10110.FX_10110'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_10110.Buff_10110'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_10111.FX_10111'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resource/Skill/Buff/Buff_11202.Buff_11202'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_11201.FX_11201'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11202.SFX_Hit_10202'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_11202.FX_11202'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11201.SFX_Hit_10201'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D/Game/Resource/Skill/Effect/'FX_11203.FX_11203'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11203.SFX_Hit_10203'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4880,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5037,10 +5037,10 @@
         <v>100</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -5105,13 +5105,13 @@
         <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -5158,10 +5158,10 @@
         <v>80</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s">
         <v>53</v>
@@ -5232,10 +5232,10 @@
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s">
         <v>54</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Z6" t="s">
         <v>55</v>
@@ -5356,10 +5356,10 @@
         <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Y7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s">
         <v>56</v>
@@ -5409,10 +5409,10 @@
         <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="Y8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
         <v>57</v>
@@ -5462,10 +5462,10 @@
         <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Y9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s">
         <v>58</v>
@@ -5515,7 +5515,7 @@
         <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="s">
         <v>59</v>
@@ -5565,10 +5565,10 @@
         <v>100</v>
       </c>
       <c r="X11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y11" t="s">
         <v>82</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>71</v>
       </c>
       <c r="Z11" t="s">
         <v>60</v>
@@ -5618,7 +5618,7 @@
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s">
         <v>61</v>
@@ -5668,10 +5668,10 @@
         <v>100</v>
       </c>
       <c r="X13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -5718,13 +5718,13 @@
         <v>100</v>
       </c>
       <c r="X14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Z14" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -5771,10 +5771,10 @@
         <v>60</v>
       </c>
       <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
         <v>86</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A003AAB-B5FE-420E-847C-E9152712E805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D04294-3876-4700-B020-C6E28E031296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="1125" windowWidth="23070" windowHeight="14565" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4880,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5344,7 +5344,7 @@
         <v>1.2</v>
       </c>
       <c r="K7">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -5447,10 +5447,10 @@
         <v>43</v>
       </c>
       <c r="J9">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="K9">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -5550,10 +5550,10 @@
         <v>43</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>-0.02</v>
       </c>
       <c r="L11">
         <v>1</v>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D04294-3876-4700-B020-C6E28E031296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3AEA28-D6C5-4D4B-8DAA-759FB431A14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-27390" yWindow="450" windowWidth="25230" windowHeight="14565" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4465,15 +4465,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11202.SFX_Hit_10202'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10202.SFX_Hit_10202'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11201.SFX_Hit_10201'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10201.SFX_Hit_10201'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11203.SFX_Hit_10203'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10203.SFX_Hit_10203'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4880,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3AEA28-D6C5-4D4B-8DAA-759FB431A14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD602710-2B82-4735-8815-CA6603F4C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27390" yWindow="450" windowWidth="25230" windowHeight="14565" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-22380" yWindow="840" windowWidth="21555" windowHeight="14565" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4880,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
         <v>2</v>

--- a/문서/skill.xlsx
+++ b/문서/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD602710-2B82-4735-8815-CA6603F4C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5FD19B-5349-4341-87B3-C3B428F83465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22380" yWindow="840" windowWidth="21555" windowHeight="14565" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
+    <workbookView xWindow="-22530" yWindow="1320" windowWidth="21555" windowHeight="14565" xr2:uid="{AA5A63A7-4285-435D-9D12-B6B1839BC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4465,15 +4465,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10202.SFX_Hit_10202'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11201.SFX_Hit_11201'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10201.SFX_Hit_10201'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11202.SFX_Hit_11202'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_10203.SFX_Hit_10203'</t>
+    <t>/Script/Engine.SoundWave'/Game/Resource/Sound/Skill/SFX_Hit_11203.SFX_Hit_11203'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4880,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94178BD5-1BE0-47B3-B7ED-76BCFB12EF69}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5671,7 +5671,7 @@
         <v>73</v>
       </c>
       <c r="Z13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -5724,7 +5724,7 @@
         <v>83</v>
       </c>
       <c r="Z14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
